--- a/addressbook-web-test/addressbook-web-test/contacts.xlsx
+++ b/addressbook-web-test/addressbook-web-test/contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Firstname</t>
   </si>
@@ -62,109 +62,106 @@
     <t>Email3</t>
   </si>
   <si>
-    <t>`"L9%&amp;BJ*;`C;WaKKM=MT</t>
-  </si>
-  <si>
-    <t>D/</t>
-  </si>
-  <si>
-    <t>]0=D'CE2=F,6!3*O8:FP+AZXWI`.</t>
-  </si>
-  <si>
-    <t>[[?&gt;&gt;)W%&amp;#Y;</t>
-  </si>
-  <si>
-    <t>_1U5J:3_</t>
-  </si>
-  <si>
-    <t>L^@Q</t>
-  </si>
-  <si>
-    <t>7EN?</t>
-  </si>
-  <si>
-    <t>7XDLNZ</t>
-  </si>
-  <si>
-    <t>)5J27N</t>
-  </si>
-  <si>
-    <t>ZC@#Ba.ru</t>
-  </si>
-  <si>
-    <t>]&lt;?@B.ru</t>
-  </si>
-  <si>
-    <t>NN@A9@5%:.ru</t>
-  </si>
-  <si>
-    <t>G(&lt;%1_5)60,X</t>
-  </si>
-  <si>
-    <t>PB,?_;&lt;$=,\W&lt;V)[S9/@("\&amp;[5_</t>
-  </si>
-  <si>
-    <t>7Z2</t>
-  </si>
-  <si>
-    <t>WVQ_,%7K`6)]B/V),/CX]8QN</t>
-  </si>
-  <si>
-    <t>&amp;EJ=5OE\)!G%+NN"EA</t>
-  </si>
-  <si>
-    <t>Z`ELAU\(</t>
-  </si>
-  <si>
-    <t>;W&gt;</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>&amp;AO.</t>
-  </si>
-  <si>
-    <t>HF!@//.ru</t>
-  </si>
-  <si>
-    <t>@.ru</t>
-  </si>
-  <si>
-    <t>WU8@_UHB.ru</t>
-  </si>
-  <si>
-    <t>)I9G.A3CC"TH-58W+4_,&gt;2Q[GAG</t>
-  </si>
-  <si>
-    <t>G&amp;/QEHFF2!7A&amp;L</t>
-  </si>
-  <si>
-    <t>#/ZJ@ !TAJ6=XY? O[U]&lt;</t>
-  </si>
-  <si>
-    <t>#$FPSE*]&gt;'RFNMNX'?F3N'/+</t>
-  </si>
-  <si>
-    <t>NT!JH2P00,V$Q/=JE,/L2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>T67)%]V;"</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>V"6&gt;@YT7.ru</t>
-  </si>
-  <si>
-    <t>)@)\a.ru</t>
-  </si>
-  <si>
-    <t>&lt;C!@ST\9.ru</t>
+    <t>;*9G%?M,%*8\H!P@=939RI]7M9U</t>
+  </si>
+  <si>
+    <t>"9R=8DO@PCY(D%\OD?BWHa2M'](S</t>
+  </si>
+  <si>
+    <t>"[MKR+M</t>
+  </si>
+  <si>
+    <t>\D$30QZA+VM</t>
+  </si>
+  <si>
+    <t>.T.Y_4"&amp;%6&lt;&lt;]1NI-&gt;S\/</t>
+  </si>
+  <si>
+    <t>J\&gt;</t>
+  </si>
+  <si>
+    <t>709,]'</t>
+  </si>
+  <si>
+    <t>&amp;!/M</t>
+  </si>
+  <si>
+    <t>M&gt;)G3F(H</t>
+  </si>
+  <si>
+    <t>a#@5.ru</t>
+  </si>
+  <si>
+    <t>#R?Y@3.ru</t>
+  </si>
+  <si>
+    <t>;^@NZ:5.ru</t>
+  </si>
+  <si>
+    <t>0?]9R5SI#$TV-8.(Y.$JH)%::</t>
+  </si>
+  <si>
+    <t>A8Z;,THA</t>
+  </si>
+  <si>
+    <t>E5]^OaWV'@F-FDG!+17/':</t>
+  </si>
+  <si>
+    <t>`@V;PIX /NIJT]16</t>
+  </si>
+  <si>
+    <t>Q4_[U%\</t>
+  </si>
+  <si>
+    <t>3:!B01I*</t>
+  </si>
+  <si>
+    <t>]&gt;ZF',0?</t>
+  </si>
+  <si>
+    <t>A_[T</t>
+  </si>
+  <si>
+    <t>@\M?T&lt;.ru</t>
+  </si>
+  <si>
+    <t>+;[@=0W.ru</t>
+  </si>
+  <si>
+    <t>_&lt;@@" T=.ru</t>
+  </si>
+  <si>
+    <t>J(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;E^[@5'GDSVP)R#``K^: </t>
+  </si>
+  <si>
+    <t>$_;R%'?HVLM</t>
+  </si>
+  <si>
+    <t>NW^M^\</t>
+  </si>
+  <si>
+    <t>Y;J+QZ/Q&gt;&amp;`+6&lt;&amp;A`@P0 (</t>
+  </si>
+  <si>
+    <t>^*"]#."2N</t>
+  </si>
+  <si>
+    <t>(^;TKYV</t>
+  </si>
+  <si>
+    <t>!BXA</t>
+  </si>
+  <si>
+    <t>RI@_..ru</t>
+  </si>
+  <si>
+    <t>L@Q@N!.ru</t>
+  </si>
+  <si>
+    <t>],C&lt;@2)L4.ru</t>
   </si>
 </sst>
 </file>
@@ -566,79 +563,73 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
